--- a/medicine/Sexualité et sexologie/Intimes_Confessions/Intimes_Confessions.xlsx
+++ b/medicine/Sexualité et sexologie/Intimes_Confessions/Intimes_Confessions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Intimes Confessions (Whispers in the Dark) est un film américain réalisé par Christopher Crowe (en) en 1992.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le docteur Ann Hecker (Annabella Sciorra), psychanalyste new-yorkaise, compte parmi ses patients Eve Abergray (Deborah Unger). Celle-ci, une jeune femme séduisante mais complexée et angoissée, confie au médecin ses expériences sexuelles sadomasochistes avec un mystérieux partenaire. Troublée malgré elle par ses confessions détaillées, Hecker voit ses propres fantasmes et rêves contaminés par les obsessions de sa patiente.
 Au point qu'elle décide de se soumettre elle-même à une analyse, pratiquée par un vieux confrère et mentor, le docteur Leo Green (Alan Alda). Elle informe également celui-ci de son intention de rompre avec son compagnon, Paul (Anthony Heald), dont l'éthylisme et le caractère velléitaire lui sont devenus insupportables. Quelques jours plus tard, Ann entame une liaison avec un pilote, Doug McDowell (Jamey Sheridan), grâce à qui elle retrouve son équilibre. Mais elle éprouve des difficultés croissantes avec Eve...
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Intimes Confessions
 Titre original : Whispers in the Dark
@@ -594,7 +610,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Annabella Sciorra : Ann Hecker
 Jamey Sheridan : Doug McDowell
